--- a/Code/Results/Cases/Case_1_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_97/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.406730350155783</v>
+        <v>1.170084597650316</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04317393298119754</v>
+        <v>0.01388653062972622</v>
       </c>
       <c r="E2">
-        <v>1.288010111418458</v>
+        <v>0.8165701030002879</v>
       </c>
       <c r="F2">
-        <v>0.402607196747482</v>
+        <v>0.3243570632220667</v>
       </c>
       <c r="G2">
-        <v>0.3096236850383178</v>
+        <v>0.1905593167315516</v>
       </c>
       <c r="H2">
-        <v>0.1876148512947253</v>
+        <v>0.3304723969503129</v>
       </c>
       <c r="I2">
-        <v>0.8319066920083387</v>
+        <v>0.9194504041202691</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7446079620050341</v>
+        <v>0.2966425630251877</v>
       </c>
       <c r="M2">
-        <v>0.6850542443540277</v>
+        <v>0.3067684467381184</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.002320915958478</v>
+        <v>0.947654812267217</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.099436205689699</v>
+        <v>1.06926235010269</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03762204256849344</v>
+        <v>0.01210636417523148</v>
       </c>
       <c r="E3">
-        <v>1.167010410717666</v>
+        <v>0.7790820133023999</v>
       </c>
       <c r="F3">
-        <v>0.3552210280484047</v>
+        <v>0.3161381378764005</v>
       </c>
       <c r="G3">
-        <v>0.2697933403419768</v>
+        <v>0.183244661425519</v>
       </c>
       <c r="H3">
-        <v>0.1744786325050995</v>
+        <v>0.3309351845615112</v>
       </c>
       <c r="I3">
-        <v>0.7831848779912178</v>
+        <v>0.9128897523368948</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.648480964386394</v>
+        <v>0.2654922027279838</v>
       </c>
       <c r="M3">
-        <v>0.5971274277563907</v>
+        <v>0.2780572639620829</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8900177551785191</v>
+        <v>0.9328345901014359</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.910880493866387</v>
+        <v>1.007170064841716</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0342083110285003</v>
+        <v>0.01100983762897556</v>
       </c>
       <c r="E4">
-        <v>1.092890159019049</v>
+        <v>0.75626965982093</v>
       </c>
       <c r="F4">
-        <v>0.3269494584552248</v>
+        <v>0.311398351808144</v>
       </c>
       <c r="G4">
-        <v>0.2460794066651388</v>
+        <v>0.1789781534719168</v>
       </c>
       <c r="H4">
-        <v>0.1668932771671976</v>
+        <v>0.3314581068826001</v>
       </c>
       <c r="I4">
-        <v>0.7548310811875396</v>
+        <v>0.9095999869402647</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5894654378390385</v>
+        <v>0.2463105021988241</v>
       </c>
       <c r="M4">
-        <v>0.5431590291925801</v>
+        <v>0.2603769395444502</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8236318230342334</v>
+        <v>0.9247010386883403</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.834049894834806</v>
+        <v>0.9818216907802935</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03281577382584544</v>
+        <v>0.01056215154336115</v>
       </c>
       <c r="E5">
-        <v>1.062730056499802</v>
+        <v>0.7470267848166543</v>
       </c>
       <c r="F5">
-        <v>0.3156188050582784</v>
+        <v>0.3095437240104175</v>
       </c>
       <c r="G5">
-        <v>0.236585794641563</v>
+        <v>0.1772956779219967</v>
       </c>
       <c r="H5">
-        <v>0.1639154370700737</v>
+        <v>0.3317311644962118</v>
       </c>
       <c r="I5">
-        <v>0.74365079836371</v>
+        <v>0.9084455961756461</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5654114558819998</v>
+        <v>0.2384804914708809</v>
       </c>
       <c r="M5">
-        <v>0.5211650081101382</v>
+        <v>0.2531596271328169</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7971739805446276</v>
+        <v>0.9216285858528721</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.821292014802026</v>
+        <v>0.9776099311580424</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03258445331078264</v>
+        <v>0.01048776380162053</v>
       </c>
       <c r="E6">
-        <v>1.057724710295332</v>
+        <v>0.7454952837722288</v>
       </c>
       <c r="F6">
-        <v>0.3137483699988834</v>
+        <v>0.3092404003733478</v>
       </c>
       <c r="G6">
-        <v>0.2350191856878538</v>
+        <v>0.1770196859382409</v>
       </c>
       <c r="H6">
-        <v>0.1634275958890967</v>
+        <v>0.3317801248044603</v>
       </c>
       <c r="I6">
-        <v>0.7418163948217682</v>
+        <v>0.9082651727985009</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5614168504374817</v>
+        <v>0.2371795373902899</v>
       </c>
       <c r="M6">
-        <v>0.5175126557867387</v>
+        <v>0.251960462311807</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7928151668274097</v>
+        <v>0.921132999144092</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.909844329894554</v>
+        <v>1.006828388723306</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03418953675549119</v>
+        <v>0.01100380334106177</v>
       </c>
       <c r="E7">
-        <v>1.092483227929705</v>
+        <v>0.7561447889595314</v>
       </c>
       <c r="F7">
-        <v>0.3267959007695254</v>
+        <v>0.3113730287116425</v>
       </c>
       <c r="G7">
-        <v>0.2459507054843471</v>
+        <v>0.1789552360851516</v>
       </c>
       <c r="H7">
-        <v>0.1668526681037363</v>
+        <v>0.3314615467518962</v>
       </c>
       <c r="I7">
-        <v>0.754678808922101</v>
+        <v>0.9095836637530041</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5891410644623392</v>
+        <v>0.2462049570596463</v>
       </c>
       <c r="M7">
-        <v>0.5428624239660493</v>
+        <v>0.2602796540019838</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8232726598962046</v>
+        <v>0.9246586237271828</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.300734598137808</v>
+        <v>1.135360921866948</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04126052360041399</v>
+        <v>0.01327347655286815</v>
       </c>
       <c r="E8">
-        <v>1.246253589299172</v>
+        <v>0.8036025474336554</v>
       </c>
       <c r="F8">
-        <v>0.3860870503719482</v>
+        <v>0.3214593814507438</v>
       </c>
       <c r="G8">
-        <v>0.295725925158095</v>
+        <v>0.187990372518513</v>
       </c>
       <c r="H8">
-        <v>0.1829811397943928</v>
+        <v>0.3305823620832342</v>
       </c>
       <c r="I8">
-        <v>0.8147717800242873</v>
+        <v>0.9170353126434136</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7114579261918834</v>
+        <v>0.2859137242949998</v>
       </c>
       <c r="M8">
-        <v>0.6547292030833916</v>
+        <v>0.2968798321252706</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9630342029190047</v>
+        <v>0.9423437306422215</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.069453167473455</v>
+        <v>1.385864484399463</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05509852520094682</v>
+        <v>0.01769514543522632</v>
       </c>
       <c r="E9">
-        <v>1.54917924087502</v>
+        <v>0.8982294911903921</v>
       </c>
       <c r="F9">
-        <v>0.509700408038114</v>
+        <v>0.3436842488750287</v>
       </c>
       <c r="G9">
-        <v>0.4000155384467945</v>
+        <v>0.2075079715846613</v>
       </c>
       <c r="H9">
-        <v>0.2187799248784756</v>
+        <v>0.330756745311561</v>
       </c>
       <c r="I9">
-        <v>0.9459033176468665</v>
+        <v>0.9374884013926277</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9516999507918911</v>
+        <v>0.3633224689406518</v>
       </c>
       <c r="M9">
-        <v>0.8745661870515704</v>
+        <v>0.3682243614249359</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.259921405187356</v>
+        <v>0.9847338378379504</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.637415172498947</v>
+        <v>1.568898085643696</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06526468544299746</v>
+        <v>0.02092439368308874</v>
       </c>
       <c r="E10">
-        <v>1.772634324254227</v>
+        <v>0.9686210568539053</v>
       </c>
       <c r="F10">
-        <v>0.6061909701230377</v>
+        <v>0.3615228318759875</v>
       </c>
       <c r="G10">
-        <v>0.4818822005116203</v>
+        <v>0.2229692771830969</v>
       </c>
       <c r="H10">
-        <v>0.2481557298283406</v>
+        <v>0.3320482836003436</v>
       </c>
       <c r="I10">
-        <v>1.051691444678738</v>
+        <v>0.9560547370952861</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.128943090427896</v>
+        <v>0.4198909809427676</v>
       </c>
       <c r="M10">
-        <v>1.03685472628662</v>
+        <v>0.4203594844888627</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.495553023701575</v>
+        <v>1.020643079153331</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.896938935130265</v>
+        <v>1.651932464596882</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06989349807806633</v>
+        <v>0.02238894557572735</v>
       </c>
       <c r="E11">
-        <v>1.874505279502458</v>
+        <v>1.000815774281065</v>
       </c>
       <c r="F11">
-        <v>0.6516027479473365</v>
+        <v>0.3699701231465866</v>
       </c>
       <c r="G11">
-        <v>0.5205435044872786</v>
+        <v>0.230251914591193</v>
       </c>
       <c r="H11">
-        <v>0.2623137653955183</v>
+        <v>0.3328897953833376</v>
       </c>
       <c r="I11">
-        <v>1.102190769156422</v>
+        <v>0.9652657063087844</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.209859804394256</v>
+        <v>0.4455550416425069</v>
       </c>
       <c r="M11">
-        <v>1.110971794961856</v>
+        <v>0.4440119986782634</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.607406859470501</v>
+        <v>1.038028000244935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.995419694748023</v>
+        <v>1.683341129237022</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07164726103587782</v>
+        <v>0.02294286034246795</v>
       </c>
       <c r="E12">
-        <v>1.91311458670728</v>
+        <v>1.013030439051633</v>
       </c>
       <c r="F12">
-        <v>0.6690426001195817</v>
+        <v>0.3732169801845799</v>
       </c>
       <c r="G12">
-        <v>0.5354126580768224</v>
+        <v>0.2330458836958371</v>
       </c>
       <c r="H12">
-        <v>0.2678006845469554</v>
+        <v>0.3332450711589701</v>
       </c>
       <c r="I12">
-        <v>1.121684035254702</v>
+        <v>0.9688632959580588</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.240553188593822</v>
+        <v>0.4552629080317843</v>
       </c>
       <c r="M12">
-        <v>1.139090400979583</v>
+        <v>0.4529589509839411</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.650510344165582</v>
+        <v>1.04476317877436</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.974200346371163</v>
+        <v>1.676578280752665</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07126950974511459</v>
+        <v>0.02282359572332382</v>
       </c>
       <c r="E13">
-        <v>1.904797888490748</v>
+        <v>1.010398786247293</v>
       </c>
       <c r="F13">
-        <v>0.665275370946361</v>
+        <v>0.3725155704238148</v>
       </c>
       <c r="G13">
-        <v>0.5321997226617015</v>
+        <v>0.232442537159784</v>
       </c>
       <c r="H13">
-        <v>0.2666132047302625</v>
+        <v>0.3331669263309749</v>
       </c>
       <c r="I13">
-        <v>1.117468865536651</v>
+        <v>0.9680836228621388</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.233940329269871</v>
+        <v>0.4531726242863954</v>
       </c>
       <c r="M13">
-        <v>1.133032068309134</v>
+        <v>0.451032506442445</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.641192747459343</v>
+        <v>1.043305867342241</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.905036670672871</v>
+        <v>1.65451717899532</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07003776052457056</v>
+        <v>0.022434530315671</v>
       </c>
       <c r="E14">
-        <v>1.877681020108156</v>
+        <v>1.00182022626764</v>
       </c>
       <c r="F14">
-        <v>0.653032506553231</v>
+        <v>0.3702362796029774</v>
       </c>
       <c r="G14">
-        <v>0.5217620615901097</v>
+        <v>0.2304810487348163</v>
       </c>
       <c r="H14">
-        <v>0.2627625932033055</v>
+        <v>0.3329182898289247</v>
       </c>
       <c r="I14">
-        <v>1.103786899714208</v>
+        <v>0.9655594880572238</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.212383862042088</v>
+        <v>0.4463539286308276</v>
       </c>
       <c r="M14">
-        <v>1.113284024393977</v>
+        <v>0.4447482681098478</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.610937584507809</v>
+        <v>1.038579057994895</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.862699785891778</v>
+        <v>1.640999551671712</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06928341030119611</v>
+        <v>0.02219612689257389</v>
       </c>
       <c r="E15">
-        <v>1.861075498313866</v>
+        <v>0.9965685852238124</v>
       </c>
       <c r="F15">
-        <v>0.6455658732253369</v>
+        <v>0.3688464131486313</v>
       </c>
       <c r="G15">
-        <v>0.5153992764334134</v>
+        <v>0.2292843042613129</v>
       </c>
       <c r="H15">
-        <v>0.2604206853091</v>
+        <v>0.3327707636336328</v>
       </c>
       <c r="I15">
-        <v>1.09545540578938</v>
+        <v>0.9640276430325372</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.199187002000627</v>
+        <v>0.4421758882129723</v>
       </c>
       <c r="M15">
-        <v>1.101194876838932</v>
+        <v>0.4408977062522723</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.592505043697116</v>
+        <v>1.035703558925576</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.620481160418876</v>
+        <v>1.563466841494289</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06496229334267412</v>
+        <v>0.02082858886578975</v>
       </c>
       <c r="E16">
-        <v>1.76598135115519</v>
+        <v>0.966520397738563</v>
       </c>
       <c r="F16">
-        <v>0.6032558537865498</v>
+        <v>0.3609774921561169</v>
       </c>
       <c r="G16">
-        <v>0.4793862418261199</v>
+        <v>0.2224983849908</v>
       </c>
       <c r="H16">
-        <v>0.247247409021881</v>
+        <v>0.3319984074341136</v>
       </c>
       <c r="I16">
-        <v>1.048441402563384</v>
+        <v>0.9554681373065961</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.12366167074623</v>
+        <v>0.4182123295099416</v>
       </c>
       <c r="M16">
-        <v>1.032017714934319</v>
+        <v>0.4188124029195635</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.488343351252837</v>
+        <v>1.019528136369019</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.472210246514351</v>
+        <v>1.51584322171459</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06231272411745437</v>
+        <v>0.01998848088723548</v>
       </c>
       <c r="E17">
-        <v>1.707701360596218</v>
+        <v>0.9481299728548009</v>
       </c>
       <c r="F17">
-        <v>0.5777060962322764</v>
+        <v>0.3562354849548512</v>
       </c>
       <c r="G17">
-        <v>0.4576741344751696</v>
+        <v>0.2183995268289038</v>
       </c>
       <c r="H17">
-        <v>0.2393773819232337</v>
+        <v>0.3315897084185622</v>
       </c>
       <c r="I17">
-        <v>1.020228056596792</v>
+        <v>0.9504128034733839</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.077410320273856</v>
+        <v>0.4034932995560894</v>
       </c>
       <c r="M17">
-        <v>0.9896613538800807</v>
+        <v>0.4052470051638366</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.425690569289031</v>
+        <v>1.009874552890182</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.387034958139225</v>
+        <v>1.488429970779578</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0607891333814905</v>
+        <v>0.01950485655313372</v>
       </c>
       <c r="E18">
-        <v>1.674200863155832</v>
+        <v>0.9375686929602978</v>
       </c>
       <c r="F18">
-        <v>0.5631518005664233</v>
+        <v>0.3535392831330739</v>
       </c>
       <c r="G18">
-        <v>0.4453179516150243</v>
+        <v>0.2160654079621764</v>
       </c>
       <c r="H18">
-        <v>0.2349248422283523</v>
+        <v>0.3313785364104405</v>
       </c>
       <c r="I18">
-        <v>1.004222271110478</v>
+        <v>0.9475771433027376</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.050834182306914</v>
+        <v>0.3950208211303448</v>
       </c>
       <c r="M18">
-        <v>0.9653258448182243</v>
+        <v>0.3974385533940676</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.390088452340478</v>
+        <v>1.004420806592094</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.358213184204999</v>
+        <v>1.479144693819251</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06027332590380041</v>
+        <v>0.01934103934320319</v>
       </c>
       <c r="E19">
-        <v>1.662861676901414</v>
+        <v>0.9339956945270984</v>
       </c>
       <c r="F19">
-        <v>0.5582474882325954</v>
+        <v>0.3526317594740433</v>
       </c>
       <c r="G19">
-        <v>0.4411563126975153</v>
+        <v>0.2152791296629033</v>
       </c>
       <c r="H19">
-        <v>0.2334296834425089</v>
+        <v>0.3313111394081858</v>
       </c>
       <c r="I19">
-        <v>0.9988402398343652</v>
+        <v>0.9466294224000649</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.041840187504619</v>
+        <v>0.3921510906682499</v>
       </c>
       <c r="M19">
-        <v>0.9570905562144034</v>
+        <v>0.3947937328118627</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.378106511521139</v>
+        <v>1.002591191295977</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.487982674811633</v>
+        <v>1.520915065674956</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06259473453781794</v>
+        <v>0.02007795520229649</v>
       </c>
       <c r="E20">
-        <v>1.713903223578129</v>
+        <v>0.9500859792887297</v>
       </c>
       <c r="F20">
-        <v>0.5804111162723302</v>
+        <v>0.3567370410332629</v>
       </c>
       <c r="G20">
-        <v>0.4599715850155235</v>
+        <v>0.21883342915676</v>
       </c>
       <c r="H20">
-        <v>0.2402074123808973</v>
+        <v>0.3316307408155126</v>
       </c>
       <c r="I20">
-        <v>1.023208260681727</v>
+        <v>0.9509435001995996</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.082331047760192</v>
+        <v>0.4050608406219283</v>
       </c>
       <c r="M20">
-        <v>0.9941674210313636</v>
+        <v>0.4066916891520904</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.432314601863908</v>
+        <v>1.010891967234841</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.925345838631472</v>
+        <v>1.660998013954099</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07039952703916441</v>
+        <v>0.02254882700466254</v>
       </c>
       <c r="E21">
-        <v>1.885644993574687</v>
+        <v>1.004339340355941</v>
       </c>
       <c r="F21">
-        <v>0.6566217174678712</v>
+        <v>0.3709044565123065</v>
       </c>
       <c r="G21">
-        <v>0.5248214352343297</v>
+        <v>0.2310562003610386</v>
       </c>
       <c r="H21">
-        <v>0.2638901089855779</v>
+        <v>0.3329903259969598</v>
       </c>
       <c r="I21">
-        <v>1.107795337189401</v>
+        <v>0.9662979165003236</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.218714019521684</v>
+        <v>0.4483570360771409</v>
       </c>
       <c r="M21">
-        <v>1.119083004650975</v>
+        <v>0.4465943698603354</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.6198033546207</v>
+        <v>1.039963306797176</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.212401546344893</v>
+        <v>1.752347524212269</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07550601892620534</v>
+        <v>0.02415970718562477</v>
       </c>
       <c r="E22">
-        <v>1.998081381245242</v>
+        <v>1.039931643986407</v>
       </c>
       <c r="F22">
-        <v>0.707861454979053</v>
+        <v>0.3804438732762065</v>
       </c>
       <c r="G22">
-        <v>0.5685519323889423</v>
+        <v>0.2392556076083707</v>
       </c>
       <c r="H22">
-        <v>0.280105927964712</v>
+        <v>0.3340923466224694</v>
       </c>
       <c r="I22">
-        <v>1.165250899534243</v>
+        <v>0.9769715382705613</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.308156719455525</v>
+        <v>0.4765917983064583</v>
       </c>
       <c r="M22">
-        <v>1.201031469798366</v>
+        <v>0.4726160536161359</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.746730840653612</v>
+        <v>1.059848851731914</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.059069878727826</v>
+        <v>1.703611712055704</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07277995733244325</v>
+        <v>0.02330032703785179</v>
       </c>
       <c r="E23">
-        <v>1.938053729427409</v>
+        <v>1.020923599474685</v>
       </c>
       <c r="F23">
-        <v>0.6803740537746279</v>
+        <v>0.3753267883353288</v>
       </c>
       <c r="G23">
-        <v>0.5450801860329619</v>
+        <v>0.2348599954184039</v>
       </c>
       <c r="H23">
-        <v>0.2713797846998034</v>
+        <v>0.333484616736726</v>
       </c>
       <c r="I23">
-        <v>1.134376940726455</v>
+        <v>0.97121652559224</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.260387504665118</v>
+        <v>0.4615282258529589</v>
       </c>
       <c r="M23">
-        <v>1.157262174086952</v>
+        <v>0.4587331844108462</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.678558662600466</v>
+        <v>1.049154204642349</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.480851752195576</v>
+        <v>1.51862219015635</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06246723864210679</v>
+        <v>0.02003750583995867</v>
       </c>
       <c r="E24">
-        <v>1.711099344457352</v>
+        <v>0.9492016324535939</v>
       </c>
       <c r="F24">
-        <v>0.5791877593425312</v>
+        <v>0.3565101939732713</v>
       </c>
       <c r="G24">
-        <v>0.4589325157818536</v>
+        <v>0.2186371922635431</v>
       </c>
       <c r="H24">
-        <v>0.2398319320542726</v>
+        <v>0.3316121159567302</v>
       </c>
       <c r="I24">
-        <v>1.021860244613748</v>
+        <v>0.9507033518948873</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.080106342863331</v>
+        <v>0.4043521873822726</v>
       </c>
       <c r="M24">
-        <v>0.9921301798473507</v>
+        <v>0.4060385771458641</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.429318581073687</v>
+        <v>1.010431694540529</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.861078028629493</v>
+        <v>1.318269472954171</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0513563692282375</v>
+        <v>0.01650225177728259</v>
       </c>
       <c r="E25">
-        <v>1.467077817566164</v>
+        <v>0.8724718079843399</v>
       </c>
       <c r="F25">
-        <v>0.4753547227508861</v>
+        <v>0.3374080341626851</v>
       </c>
       <c r="G25">
-        <v>0.3709707284694446</v>
+        <v>0.2020327200768861</v>
       </c>
       <c r="H25">
-        <v>0.2085960511373912</v>
+        <v>0.3305056962784505</v>
       </c>
       <c r="I25">
-        <v>0.9088729425756341</v>
+        <v>0.9313322745782884</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8866177492813847</v>
+        <v>0.3424330323349238</v>
       </c>
       <c r="M25">
-        <v>0.8149962727657041</v>
+        <v>0.348971786119229</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.176805323777188</v>
+        <v>0.9724340452055174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_97/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.170084597650316</v>
+        <v>2.406730350155613</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01388653062972622</v>
+        <v>0.04317393298131122</v>
       </c>
       <c r="E2">
-        <v>0.8165701030002879</v>
+        <v>1.288010111418501</v>
       </c>
       <c r="F2">
-        <v>0.3243570632220667</v>
+        <v>0.4026071967474536</v>
       </c>
       <c r="G2">
-        <v>0.1905593167315516</v>
+        <v>0.3096236850383889</v>
       </c>
       <c r="H2">
-        <v>0.3304723969503129</v>
+        <v>0.187614851294839</v>
       </c>
       <c r="I2">
-        <v>0.9194504041202691</v>
+        <v>0.83190669200836</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2966425630251877</v>
+        <v>0.7446079620050341</v>
       </c>
       <c r="M2">
-        <v>0.3067684467381184</v>
+        <v>0.6850542443540633</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.947654812267217</v>
+        <v>1.002320915958506</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.06926235010269</v>
+        <v>2.099436205689528</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01210636417523148</v>
+        <v>0.0376220425683087</v>
       </c>
       <c r="E3">
-        <v>0.7790820133023999</v>
+        <v>1.167010410717708</v>
       </c>
       <c r="F3">
-        <v>0.3161381378764005</v>
+        <v>0.3552210280484189</v>
       </c>
       <c r="G3">
-        <v>0.183244661425519</v>
+        <v>0.2697933403420336</v>
       </c>
       <c r="H3">
-        <v>0.3309351845615112</v>
+        <v>0.1744786325050995</v>
       </c>
       <c r="I3">
-        <v>0.9128897523368948</v>
+        <v>0.7831848779912463</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2654922027279838</v>
+        <v>0.6484809643862803</v>
       </c>
       <c r="M3">
-        <v>0.2780572639620829</v>
+        <v>0.5971274277563907</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9328345901014359</v>
+        <v>0.8900177551785191</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.007170064841716</v>
+        <v>1.910880493867012</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01100983762897556</v>
+        <v>0.03420831102861399</v>
       </c>
       <c r="E4">
-        <v>0.75626965982093</v>
+        <v>1.092890159019063</v>
       </c>
       <c r="F4">
-        <v>0.311398351808144</v>
+        <v>0.3269494584552248</v>
       </c>
       <c r="G4">
-        <v>0.1789781534719168</v>
+        <v>0.246079406665082</v>
       </c>
       <c r="H4">
-        <v>0.3314581068826001</v>
+        <v>0.1668932771672047</v>
       </c>
       <c r="I4">
-        <v>0.9095999869402647</v>
+        <v>0.7548310811875751</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2463105021988241</v>
+        <v>0.5894654378387543</v>
       </c>
       <c r="M4">
-        <v>0.2603769395444502</v>
+        <v>0.5431590291925801</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9247010386883403</v>
+        <v>0.8236318230342334</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9818216907802935</v>
+        <v>1.834049894834777</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01056215154336115</v>
+        <v>0.03281577382584544</v>
       </c>
       <c r="E5">
-        <v>0.7470267848166543</v>
+        <v>1.062730056499774</v>
       </c>
       <c r="F5">
-        <v>0.3095437240104175</v>
+        <v>0.3156188050582784</v>
       </c>
       <c r="G5">
-        <v>0.1772956779219967</v>
+        <v>0.2365857946416057</v>
       </c>
       <c r="H5">
-        <v>0.3317311644962118</v>
+        <v>0.1639154370699671</v>
       </c>
       <c r="I5">
-        <v>0.9084455961756461</v>
+        <v>0.74365079836371</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2384804914708809</v>
+        <v>0.5654114558822556</v>
       </c>
       <c r="M5">
-        <v>0.2531596271328169</v>
+        <v>0.5211650081101453</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9216285858528721</v>
+        <v>0.7971739805446276</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9776099311580424</v>
+        <v>1.821292014802054</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01048776380162053</v>
+        <v>0.03258445331067605</v>
       </c>
       <c r="E6">
-        <v>0.7454952837722288</v>
+        <v>1.057724710295318</v>
       </c>
       <c r="F6">
-        <v>0.3092404003733478</v>
+        <v>0.3137483699988906</v>
       </c>
       <c r="G6">
-        <v>0.1770196859382409</v>
+        <v>0.2350191856878538</v>
       </c>
       <c r="H6">
-        <v>0.3317801248044603</v>
+        <v>0.1634275958889688</v>
       </c>
       <c r="I6">
-        <v>0.9082651727985009</v>
+        <v>0.7418163948217824</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2371795373902899</v>
+        <v>0.5614168504373964</v>
       </c>
       <c r="M6">
-        <v>0.251960462311807</v>
+        <v>0.5175126557867173</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.921132999144092</v>
+        <v>0.7928151668274097</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.006828388723306</v>
+        <v>1.909844329894611</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01100380334106177</v>
+        <v>0.03418953675553382</v>
       </c>
       <c r="E7">
-        <v>0.7561447889595314</v>
+        <v>1.092483227929705</v>
       </c>
       <c r="F7">
-        <v>0.3113730287116425</v>
+        <v>0.3267959007695183</v>
       </c>
       <c r="G7">
-        <v>0.1789552360851516</v>
+        <v>0.245950705484411</v>
       </c>
       <c r="H7">
-        <v>0.3314615467518962</v>
+        <v>0.16685266810385</v>
       </c>
       <c r="I7">
-        <v>0.9095836637530041</v>
+        <v>0.7546788089221366</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2462049570596463</v>
+        <v>0.5891410644621971</v>
       </c>
       <c r="M7">
-        <v>0.2602796540019838</v>
+        <v>0.5428624239660422</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9246586237271828</v>
+        <v>0.8232726598962188</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.135360921866948</v>
+        <v>2.300734598137922</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01327347655286815</v>
+        <v>0.04126052360044952</v>
       </c>
       <c r="E8">
-        <v>0.8036025474336554</v>
+        <v>1.246253589299158</v>
       </c>
       <c r="F8">
-        <v>0.3214593814507438</v>
+        <v>0.3860870503719553</v>
       </c>
       <c r="G8">
-        <v>0.187990372518513</v>
+        <v>0.2957259251581092</v>
       </c>
       <c r="H8">
-        <v>0.3305823620832342</v>
+        <v>0.182981139794407</v>
       </c>
       <c r="I8">
-        <v>0.9170353126434136</v>
+        <v>0.8147717800242376</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2859137242949998</v>
+        <v>0.7114579261919971</v>
       </c>
       <c r="M8">
-        <v>0.2968798321252706</v>
+        <v>0.6547292030833773</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9423437306422215</v>
+        <v>0.9630342029190047</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.385864484399463</v>
+        <v>3.069453167473569</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01769514543522632</v>
+        <v>0.05509852520083314</v>
       </c>
       <c r="E9">
-        <v>0.8982294911903921</v>
+        <v>1.549179240875063</v>
       </c>
       <c r="F9">
-        <v>0.3436842488750287</v>
+        <v>0.5097004080380998</v>
       </c>
       <c r="G9">
-        <v>0.2075079715846613</v>
+        <v>0.4000155384467945</v>
       </c>
       <c r="H9">
-        <v>0.330756745311561</v>
+        <v>0.2187799248784756</v>
       </c>
       <c r="I9">
-        <v>0.9374884013926277</v>
+        <v>0.9459033176468949</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3633224689406518</v>
+        <v>0.9516999507917774</v>
       </c>
       <c r="M9">
-        <v>0.3682243614249359</v>
+        <v>0.8745661870516059</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9847338378379504</v>
+        <v>1.259921405187413</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.568898085643696</v>
+        <v>3.637415172498493</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02092439368308874</v>
+        <v>0.0652646854427843</v>
       </c>
       <c r="E10">
-        <v>0.9686210568539053</v>
+        <v>1.772634324254184</v>
       </c>
       <c r="F10">
-        <v>0.3615228318759875</v>
+        <v>0.6061909701230377</v>
       </c>
       <c r="G10">
-        <v>0.2229692771830969</v>
+        <v>0.4818822005116061</v>
       </c>
       <c r="H10">
-        <v>0.3320482836003436</v>
+        <v>0.2481557298283406</v>
       </c>
       <c r="I10">
-        <v>0.9560547370952861</v>
+        <v>1.051691444678724</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4198909809427676</v>
+        <v>1.128943090427839</v>
       </c>
       <c r="M10">
-        <v>0.4203594844888627</v>
+        <v>1.03685472628662</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.020643079153331</v>
+        <v>1.495553023701632</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.651932464596882</v>
+        <v>3.89693893513072</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02238894557572735</v>
+        <v>0.06989349807788869</v>
       </c>
       <c r="E11">
-        <v>1.000815774281065</v>
+        <v>1.874505279502458</v>
       </c>
       <c r="F11">
-        <v>0.3699701231465866</v>
+        <v>0.6516027479473365</v>
       </c>
       <c r="G11">
-        <v>0.230251914591193</v>
+        <v>0.5205435044872786</v>
       </c>
       <c r="H11">
-        <v>0.3328897953833376</v>
+        <v>0.2623137653955183</v>
       </c>
       <c r="I11">
-        <v>0.9652657063087844</v>
+        <v>1.102190769156451</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4455550416425069</v>
+        <v>1.209859804394256</v>
       </c>
       <c r="M11">
-        <v>0.4440119986782634</v>
+        <v>1.110971794961813</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.038028000244935</v>
+        <v>1.607406859470501</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.683341129237022</v>
+        <v>3.995419694747454</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02294286034246795</v>
+        <v>0.07164726103582097</v>
       </c>
       <c r="E12">
-        <v>1.013030439051633</v>
+        <v>1.913114586707309</v>
       </c>
       <c r="F12">
-        <v>0.3732169801845799</v>
+        <v>0.6690426001195817</v>
       </c>
       <c r="G12">
-        <v>0.2330458836958371</v>
+        <v>0.5354126580768508</v>
       </c>
       <c r="H12">
-        <v>0.3332450711589701</v>
+        <v>0.2678006845470691</v>
       </c>
       <c r="I12">
-        <v>0.9688632959580588</v>
+        <v>1.121684035254688</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4552629080317843</v>
+        <v>1.240553188593907</v>
       </c>
       <c r="M12">
-        <v>0.4529589509839411</v>
+        <v>1.139090400979583</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.04476317877436</v>
+        <v>1.650510344165497</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.676578280752665</v>
+        <v>3.974200346370935</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02282359572332382</v>
+        <v>0.07126950974516433</v>
       </c>
       <c r="E13">
-        <v>1.010398786247293</v>
+        <v>1.904797888490762</v>
       </c>
       <c r="F13">
-        <v>0.3725155704238148</v>
+        <v>0.665275370946361</v>
       </c>
       <c r="G13">
-        <v>0.232442537159784</v>
+        <v>0.5321997226616872</v>
       </c>
       <c r="H13">
-        <v>0.3331669263309749</v>
+        <v>0.2666132047302483</v>
       </c>
       <c r="I13">
-        <v>0.9680836228621388</v>
+        <v>1.117468865536651</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4531726242863954</v>
+        <v>1.233940329269814</v>
       </c>
       <c r="M13">
-        <v>0.451032506442445</v>
+        <v>1.133032068309092</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.043305867342241</v>
+        <v>1.641192747459257</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.65451717899532</v>
+        <v>3.905036670673041</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.022434530315671</v>
+        <v>0.07003776052446398</v>
       </c>
       <c r="E14">
-        <v>1.00182022626764</v>
+        <v>1.877681020108156</v>
       </c>
       <c r="F14">
-        <v>0.3702362796029774</v>
+        <v>0.6530325065532452</v>
       </c>
       <c r="G14">
-        <v>0.2304810487348163</v>
+        <v>0.5217620615901239</v>
       </c>
       <c r="H14">
-        <v>0.3329182898289247</v>
+        <v>0.2627625932032913</v>
       </c>
       <c r="I14">
-        <v>0.9655594880572238</v>
+        <v>1.103786899714208</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4463539286308276</v>
+        <v>1.212383862042145</v>
       </c>
       <c r="M14">
-        <v>0.4447482681098478</v>
+        <v>1.113284024393963</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.038579057994895</v>
+        <v>1.610937584507838</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.640999551671712</v>
+        <v>3.862699785891721</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02219612689257389</v>
+        <v>0.06928341030155138</v>
       </c>
       <c r="E15">
-        <v>0.9965685852238124</v>
+        <v>1.861075498313852</v>
       </c>
       <c r="F15">
-        <v>0.3688464131486313</v>
+        <v>0.6455658732253369</v>
       </c>
       <c r="G15">
-        <v>0.2292843042613129</v>
+        <v>0.5153992764334134</v>
       </c>
       <c r="H15">
-        <v>0.3327707636336328</v>
+        <v>0.2604206853091</v>
       </c>
       <c r="I15">
-        <v>0.9640276430325372</v>
+        <v>1.095455405789394</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4421758882129723</v>
+        <v>1.199187002000656</v>
       </c>
       <c r="M15">
-        <v>0.4408977062522723</v>
+        <v>1.101194876838932</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.035703558925576</v>
+        <v>1.592505043697201</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.563466841494289</v>
+        <v>3.620481160418876</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02082858886578975</v>
+        <v>0.06496229334262438</v>
       </c>
       <c r="E16">
-        <v>0.966520397738563</v>
+        <v>1.76598135115519</v>
       </c>
       <c r="F16">
-        <v>0.3609774921561169</v>
+        <v>0.6032558537865782</v>
       </c>
       <c r="G16">
-        <v>0.2224983849908</v>
+        <v>0.4793862418260915</v>
       </c>
       <c r="H16">
-        <v>0.3319984074341136</v>
+        <v>0.2472474090219947</v>
       </c>
       <c r="I16">
-        <v>0.9554681373065961</v>
+        <v>1.04844140256337</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4182123295099416</v>
+        <v>1.123661670746458</v>
       </c>
       <c r="M16">
-        <v>0.4188124029195635</v>
+        <v>1.032017714934277</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.019528136369019</v>
+        <v>1.488343351252809</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.51584322171459</v>
+        <v>3.472210246514692</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01998848088723548</v>
+        <v>0.06231272411722699</v>
       </c>
       <c r="E17">
-        <v>0.9481299728548009</v>
+        <v>1.707701360596232</v>
       </c>
       <c r="F17">
-        <v>0.3562354849548512</v>
+        <v>0.5777060962322693</v>
       </c>
       <c r="G17">
-        <v>0.2183995268289038</v>
+        <v>0.457674134475198</v>
       </c>
       <c r="H17">
-        <v>0.3315897084185622</v>
+        <v>0.2393773819232337</v>
       </c>
       <c r="I17">
-        <v>0.9504128034733839</v>
+        <v>1.020228056596778</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4034932995560894</v>
+        <v>1.077410320274026</v>
       </c>
       <c r="M17">
-        <v>0.4052470051638366</v>
+        <v>0.9896613538800665</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.009874552890182</v>
+        <v>1.425690569289003</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.488429970779578</v>
+        <v>3.387034958138884</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01950485655313372</v>
+        <v>0.0607891333814834</v>
       </c>
       <c r="E18">
-        <v>0.9375686929602978</v>
+        <v>1.674200863155789</v>
       </c>
       <c r="F18">
-        <v>0.3535392831330739</v>
+        <v>0.5631518005664446</v>
       </c>
       <c r="G18">
-        <v>0.2160654079621764</v>
+        <v>0.4453179516150811</v>
       </c>
       <c r="H18">
-        <v>0.3313785364104405</v>
+        <v>0.2349248422283523</v>
       </c>
       <c r="I18">
-        <v>0.9475771433027376</v>
+        <v>1.004222271110478</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3950208211303448</v>
+        <v>1.050834182307028</v>
       </c>
       <c r="M18">
-        <v>0.3974385533940676</v>
+        <v>0.9653258448182385</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.004420806592094</v>
+        <v>1.39008845234045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.479144693819251</v>
+        <v>3.358213184205056</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01934103934320319</v>
+        <v>0.06027332590375778</v>
       </c>
       <c r="E19">
-        <v>0.9339956945270984</v>
+        <v>1.662861676901372</v>
       </c>
       <c r="F19">
-        <v>0.3526317594740433</v>
+        <v>0.5582474882325741</v>
       </c>
       <c r="G19">
-        <v>0.2152791296629033</v>
+        <v>0.4411563126975864</v>
       </c>
       <c r="H19">
-        <v>0.3313111394081858</v>
+        <v>0.2334296834425089</v>
       </c>
       <c r="I19">
-        <v>0.9466294224000649</v>
+        <v>0.9988402398343226</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3921510906682499</v>
+        <v>1.041840187504505</v>
       </c>
       <c r="M19">
-        <v>0.3947937328118627</v>
+        <v>0.9570905562144389</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.002591191295977</v>
+        <v>1.378106511521196</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.520915065674956</v>
+        <v>3.487982674812201</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02007795520229649</v>
+        <v>0.0625947345377682</v>
       </c>
       <c r="E20">
-        <v>0.9500859792887297</v>
+        <v>1.713903223578129</v>
       </c>
       <c r="F20">
-        <v>0.3567370410332629</v>
+        <v>0.5804111162723302</v>
       </c>
       <c r="G20">
-        <v>0.21883342915676</v>
+        <v>0.4599715850154951</v>
       </c>
       <c r="H20">
-        <v>0.3316307408155126</v>
+        <v>0.240207412381011</v>
       </c>
       <c r="I20">
-        <v>0.9509435001995996</v>
+        <v>1.02320826068177</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4050608406219283</v>
+        <v>1.082331047760249</v>
       </c>
       <c r="M20">
-        <v>0.4066916891520904</v>
+        <v>0.9941674210313423</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.010891967234841</v>
+        <v>1.432314601863879</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.660998013954099</v>
+        <v>3.925345838631415</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02254882700466254</v>
+        <v>0.07039952703916441</v>
       </c>
       <c r="E21">
-        <v>1.004339340355941</v>
+        <v>1.885644993574658</v>
       </c>
       <c r="F21">
-        <v>0.3709044565123065</v>
+        <v>0.6566217174678712</v>
       </c>
       <c r="G21">
-        <v>0.2310562003610386</v>
+        <v>0.5248214352343155</v>
       </c>
       <c r="H21">
-        <v>0.3329903259969598</v>
+        <v>0.2638901089857058</v>
       </c>
       <c r="I21">
-        <v>0.9662979165003236</v>
+        <v>1.107795337189387</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4483570360771409</v>
+        <v>1.218714019521741</v>
       </c>
       <c r="M21">
-        <v>0.4465943698603354</v>
+        <v>1.119083004650975</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.039963306797176</v>
+        <v>1.619803354620643</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.752347524212269</v>
+        <v>4.212401546344438</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02415970718562477</v>
+        <v>0.07550601892619824</v>
       </c>
       <c r="E22">
-        <v>1.039931643986407</v>
+        <v>1.998081381245214</v>
       </c>
       <c r="F22">
-        <v>0.3804438732762065</v>
+        <v>0.7078614549790387</v>
       </c>
       <c r="G22">
-        <v>0.2392556076083707</v>
+        <v>0.5685519323889565</v>
       </c>
       <c r="H22">
-        <v>0.3340923466224694</v>
+        <v>0.280105927964712</v>
       </c>
       <c r="I22">
-        <v>0.9769715382705613</v>
+        <v>1.165250899534215</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4765917983064583</v>
+        <v>1.308156719455638</v>
       </c>
       <c r="M22">
-        <v>0.4726160536161359</v>
+        <v>1.201031469798323</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.059848851731914</v>
+        <v>1.746730840653612</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.703611712055704</v>
+        <v>4.059069878727541</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02330032703785179</v>
+        <v>0.07277995733240061</v>
       </c>
       <c r="E23">
-        <v>1.020923599474685</v>
+        <v>1.938053729427452</v>
       </c>
       <c r="F23">
-        <v>0.3753267883353288</v>
+        <v>0.6803740537746279</v>
       </c>
       <c r="G23">
-        <v>0.2348599954184039</v>
+        <v>0.5450801860329761</v>
       </c>
       <c r="H23">
-        <v>0.333484616736726</v>
+        <v>0.2713797846998034</v>
       </c>
       <c r="I23">
-        <v>0.97121652559224</v>
+        <v>1.134376940726469</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4615282258529589</v>
+        <v>1.260387504665317</v>
       </c>
       <c r="M23">
-        <v>0.4587331844108462</v>
+        <v>1.157262174087009</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.049154204642349</v>
+        <v>1.678558662600466</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.51862219015635</v>
+        <v>3.480851752195576</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02003750583995867</v>
+        <v>0.06246723864222048</v>
       </c>
       <c r="E24">
-        <v>0.9492016324535939</v>
+        <v>1.711099344457381</v>
       </c>
       <c r="F24">
-        <v>0.3565101939732713</v>
+        <v>0.5791877593425667</v>
       </c>
       <c r="G24">
-        <v>0.2186371922635431</v>
+        <v>0.4589325157818962</v>
       </c>
       <c r="H24">
-        <v>0.3316121159567302</v>
+        <v>0.2398319320542726</v>
       </c>
       <c r="I24">
-        <v>0.9507033518948873</v>
+        <v>1.02186024461372</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4043521873822726</v>
+        <v>1.08010634286353</v>
       </c>
       <c r="M24">
-        <v>0.4060385771458641</v>
+        <v>0.992130179847365</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.010431694540529</v>
+        <v>1.429318581073716</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.318269472954171</v>
+        <v>2.86107802862972</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01650225177728259</v>
+        <v>0.05135636922818776</v>
       </c>
       <c r="E25">
-        <v>0.8724718079843399</v>
+        <v>1.467077817566164</v>
       </c>
       <c r="F25">
-        <v>0.3374080341626851</v>
+        <v>0.4753547227508506</v>
       </c>
       <c r="G25">
-        <v>0.2020327200768861</v>
+        <v>0.3709707284694019</v>
       </c>
       <c r="H25">
-        <v>0.3305056962784505</v>
+        <v>0.208596051137377</v>
       </c>
       <c r="I25">
-        <v>0.9313322745782884</v>
+        <v>0.9088729425756625</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3424330323349238</v>
+        <v>0.8866177492814984</v>
       </c>
       <c r="M25">
-        <v>0.348971786119229</v>
+        <v>0.8149962727657041</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9724340452055174</v>
+        <v>1.176805323777216</v>
       </c>
     </row>
   </sheetData>
